--- a/DNK.xlsx
+++ b/DNK.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8427" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8427" uniqueCount="1220">
   <si>
     <t>Aalborg</t>
   </si>
@@ -3671,9 +3671,6 @@
     <t>27.5%</t>
   </si>
   <si>
-    <t>8.3%</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -3687,9 +3684,6 @@
   </si>
   <si>
     <t>43.5%</t>
-  </si>
-  <si>
-    <t>75.0%</t>
   </si>
 </sst>
 </file>
@@ -42235,10 +42229,10 @@
         <v>912</v>
       </c>
       <c r="D11" t="s">
-        <v>568</v>
+        <v>871</v>
       </c>
       <c r="E11" t="s">
-        <v>1215</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -42260,10 +42254,10 @@
         <v>1202</v>
       </c>
       <c r="C1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D1" t="s">
         <v>1216</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="2">
@@ -42274,7 +42268,7 @@
         <v>1204</v>
       </c>
       <c r="C2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D2" t="s">
         <v>827</v>
@@ -42316,10 +42310,10 @@
         <v>1207</v>
       </c>
       <c r="C5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="6">
@@ -42344,7 +42338,7 @@
         <v>1209</v>
       </c>
       <c r="C7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D7" t="s">
         <v>966</v>
@@ -42400,10 +42394,10 @@
         <v>1213</v>
       </c>
       <c r="C11" t="s">
-        <v>1221</v>
+        <v>947</v>
       </c>
       <c r="D11" t="s">
-        <v>626</v>
+        <v>871</v>
       </c>
     </row>
   </sheetData>

--- a/DNK.xlsx
+++ b/DNK.xlsx
@@ -419,256 +419,256 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Aalborg,L D W W D W W W L W L</t>
-  </si>
-  <si>
-    <t>Aarhus,D L L L L D W W W L W</t>
-  </si>
-  <si>
-    <t>Brondby,D D L L D W D L W D W</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,D W W W W W W L W D D</t>
-  </si>
-  <si>
-    <t>Midtjylland,W W W W W L W W W W D</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,D W W W W L L L L L D</t>
-  </si>
-  <si>
-    <t>Odense,D L L D D D W L D W L</t>
-  </si>
-  <si>
-    <t>Randers FC,D W W W D L L W L D W</t>
-  </si>
-  <si>
-    <t>Silkeborg,D D W D L W D L W W D</t>
-  </si>
-  <si>
-    <t>Sonderjyske,W L L L L D L W L L D</t>
-  </si>
-  <si>
-    <t>Vejle,L D L L L L L D L L L</t>
-  </si>
-  <si>
-    <t>Viborg,D L L L W D L D D D D</t>
-  </si>
-  <si>
-    <t>Aalborg,0 0 2 1 1 2 3 2 1 4 0,(16)</t>
-  </si>
-  <si>
-    <t>Aarhus,0 1 0 1 0 2 1 2 1 0 1,(9)</t>
-  </si>
-  <si>
-    <t>Brondby,1 2 2 0 2 2 1 0 2 1 3,(16)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,0 2 4 3 2 4 2 0 5 1 1,(24)</t>
-  </si>
-  <si>
-    <t>Midtjylland,1 2 4 2 3 0 2 1 1 4 2,(22)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,0 2 3 1 3 1 0 2 1 1 2,(16)</t>
-  </si>
-  <si>
-    <t>Odense,1 0 1 1 2 2 2 0 1 6 1,(17)</t>
-  </si>
-  <si>
-    <t>Randers FC,1 2 1 2 1 1 0 3 0 1 2,(14)</t>
-  </si>
-  <si>
-    <t>Silkeborg,0 0 4 1 0 2 1 0 4 4 1,(17)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,1 0 0 0 0 2 1 1 0 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Vejle,0 2 1 0 1 0 0 1 2 0 2,(9)</t>
-  </si>
-  <si>
-    <t>Viborg,1 0 1 1 2 2 2 1 1 1 1,(13)</t>
-  </si>
-  <si>
-    <t>Aalborg,1 0 0 0 1 1 2 0 2 0 1,(8)</t>
-  </si>
-  <si>
-    <t>Aarhus,0 2 2 3 2 2 0 0 0 4 0,(15)</t>
-  </si>
-  <si>
-    <t>Brondby,1 2 4 1 2 0 1 1 1 1 2,(16)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,0 0 2 1 0 0 0 1 1 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Midtjylland,0 0 1 0 0 2 0 0 0 0 2,(5)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,0 0 1 0 1 2 2 3 5 4 2,(20)</t>
-  </si>
-  <si>
-    <t>Odense,1 2 3 1 2 2 1 2 1 0 2,(17)</t>
-  </si>
-  <si>
-    <t>Randers FC,1 1 0 1 1 2 2 2 1 1 1,(13)</t>
-  </si>
-  <si>
-    <t>Silkeborg,0 0 1 1 3 1 1 2 2 1 1,(13)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,0 2 1 2 2 2 2 0 1 4 1,(17)</t>
-  </si>
-  <si>
-    <t>Vejle,1 2 4 1 3 4 1 1 4 6 3,(30)</t>
-  </si>
-  <si>
-    <t>Viborg,1 2 4 2 0 2 3 1 1 1 1,(18)</t>
-  </si>
-  <si>
-    <t>Aalborg,1 0 2 1 2 3 5 2 3 4 1,(24)</t>
-  </si>
-  <si>
-    <t>Aarhus,0 3 2 4 2 4 1 2 1 4 1,(24)</t>
-  </si>
-  <si>
-    <t>Brondby,2 4 6 1 4 2 2 1 3 2 5,(32)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,0 2 6 4 2 4 2 1 6 2 2,(31)</t>
-  </si>
-  <si>
-    <t>Midtjylland,1 2 5 2 3 2 2 1 1 4 4,(27)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,0 2 4 1 4 3 2 5 6 5 4,(36)</t>
-  </si>
-  <si>
-    <t>Odense,2 2 4 2 4 4 3 2 2 6 3,(34)</t>
-  </si>
-  <si>
-    <t>Randers FC,2 3 1 3 2 3 2 5 1 2 3,(27)</t>
-  </si>
-  <si>
-    <t>Silkeborg,0 0 5 2 3 3 2 2 6 5 2,(30)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,1 2 1 2 2 4 3 1 1 4 2,(23)</t>
-  </si>
-  <si>
-    <t>Vejle,1 4 5 1 4 4 1 2 6 6 5,(39)</t>
-  </si>
-  <si>
-    <t>Viborg,2 2 5 3 2 4 5 2 2 2 2,(31)</t>
-  </si>
-  <si>
-    <t>Aalborg,0-1 0-0 2-0 0-1 1-1 2-1 2-3 2-0 2-1 4-0 1-0</t>
-  </si>
-  <si>
-    <t>Aarhus,0-0 1-2 2-0 1-3 2-0 2-2 1-0 0-2 1-0 4-0 1-0</t>
-  </si>
-  <si>
-    <t>Brondby,1-1 2-2 4-2 0-1 2-2 2-0 1-1 1-0 2-1 1-1 3-2</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,0-0 0-2 4-2 1-3 2-0 0-4 0-2 0-1 1-5 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Midtjylland,0-1 0-2 4-1 0-2 3-0 2-0 2-0 0-1 1-0 4-0 2-2</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,0-0 0-2 3-1 0-1 3-1 2-1 2-0 3-2 1-5 4-1 2-2</t>
-  </si>
-  <si>
-    <t>Odense,1-1 0-2 3-1 1-1 2-2 2-2 2-1 2-0 1-1 6-0 1-2</t>
-  </si>
-  <si>
-    <t>Randers FC,1-1 1-2 1-0 1-2 1-1 2-1 0-2 3-2 1-0 1-1 1-2</t>
-  </si>
-  <si>
-    <t>Silkeborg,0-0 0-0 4-1 1-1 3-0 2-1 1-1 0-2 2-4 4-1 1-1</t>
-  </si>
-  <si>
-    <t>Sonderjyske,1-0 0-2 1-0 0-2 2-0 2-2 2-1 1-0 1-0 4-0 1-1</t>
-  </si>
-  <si>
-    <t>Vejle,1-0 2-2 4-1 0-1 3-1 0-4 1-0 1-1 2-4 6-0 3-2</t>
-  </si>
-  <si>
-    <t>Viborg,1-1 0-2 4-1 1-2 2-0 2-2 2-3 1-1 1-1 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Aalborg,-1 0 2 1 0 1 1 2 -1 4 -1,(8)</t>
-  </si>
-  <si>
-    <t>Aarhus,0 -1 -2 -2 -2 0 1 2 1 -4 1,(-6)</t>
-  </si>
-  <si>
-    <t>Brondby,0 0 -2 -1 0 2 0 -1 1 0 1,(0)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,0 2 2 2 2 4 2 -1 4 0 0,(17)</t>
-  </si>
-  <si>
-    <t>Midtjylland,1 2 3 2 3 -2 2 1 1 4 0,(17)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,0 2 2 1 2 -1 -2 -1 -4 -3 0,(-4)</t>
-  </si>
-  <si>
-    <t>Odense,0 -2 -2 0 0 0 1 -2 0 6 -1,(0)</t>
-  </si>
-  <si>
-    <t>Randers FC,0 1 1 1 0 -1 -2 1 -1 0 1,(1)</t>
-  </si>
-  <si>
-    <t>Silkeborg,0 0 3 0 -3 1 0 -2 2 3 0,(4)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,1 -2 -1 -2 -2 0 -1 1 -1 -4 0,(-11)</t>
-  </si>
-  <si>
-    <t>Vejle,-1 0 -3 -1 -2 -4 -1 0 -2 -6 -1,(-21)</t>
-  </si>
-  <si>
-    <t>Viborg,0 -2 -3 -1 2 0 -1 0 0 0 0,(-5)</t>
-  </si>
-  <si>
-    <t>Aalborg,Midtjylland(1) Silkeborg(5) Aarhus(6) Vejle(12) Randers FC(4) Nordsjaelland(8) Viborg(10) Odense(9) Brondby(7) Sonderjyske(11) Aarhus(6)</t>
-  </si>
-  <si>
-    <t>Aarhus,Nordsjaelland(8) Randers FC(4) Aalborg(3) FC Copenhagen(2) Viborg(10) Odense(9) Vejle(12) Silkeborg(5) Sonderjyske(11) Midtjylland(1) Aalborg(3)</t>
-  </si>
-  <si>
-    <t>Brondby,Viborg(10) Vejle(12) FC Copenhagen(2) Nordsjaelland(8) Odense(9) Midtjylland(1) Silkeborg(5) Sonderjyske(11) Aalborg(3) Randers FC(4) Vejle(12)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,Silkeborg(5) Odense(9) Brondby(7) Aarhus(6) Sonderjyske(11) Vejle(12) Randers FC(4) Midtjylland(1) Nordsjaelland(8) Viborg(10) Sonderjyske(11)</t>
-  </si>
-  <si>
-    <t>Midtjylland,Aalborg(3) Viborg(10) Vejle(12) Sonderjyske(11) Silkeborg(5) Brondby(7) Nordsjaelland(8) FC Copenhagen(2) Randers FC(4) Aarhus(6) Nordsjaelland(8)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,Aarhus(6) Sonderjyske(11) Odense(9) Brondby(7) Vejle(12) Aalborg(3) Midtjylland(1) Randers FC(4) FC Copenhagen(2) Silkeborg(5) Midtjylland(1)</t>
-  </si>
-  <si>
-    <t>Odense,Randers FC(4) FC Copenhagen(2) Nordsjaelland(8) Silkeborg(5) Brondby(7) Aarhus(6) Sonderjyske(11) Aalborg(3) Viborg(10) Vejle(12) Randers FC(4)</t>
-  </si>
-  <si>
-    <t>Randers FC,Odense(9) Aarhus(6) Sonderjyske(11) Viborg(10) Aalborg(3) Silkeborg(5) FC Copenhagen(2) Nordsjaelland(8) Midtjylland(1) Brondby(7) Odense(9)</t>
-  </si>
-  <si>
-    <t>Silkeborg,FC Copenhagen(2) Aalborg(3) Viborg(10) Odense(9) Midtjylland(1) Randers FC(4) Brondby(7) Aarhus(6) Vejle(12) Nordsjaelland(8) Viborg(10)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,Vejle(12) Nordsjaelland(8) Randers FC(4) Midtjylland(1) FC Copenhagen(2) Viborg(10) Odense(9) Brondby(7) Aarhus(6) Aalborg(3) FC Copenhagen(2)</t>
-  </si>
-  <si>
-    <t>Vejle,Sonderjyske(11) Brondby(7) Midtjylland(1) Aalborg(3) Nordsjaelland(8) FC Copenhagen(2) Aarhus(6) Viborg(10) Silkeborg(5) Odense(9) Brondby(7)</t>
-  </si>
-  <si>
-    <t>Viborg,Brondby(7) Midtjylland(1) Silkeborg(5) Randers FC(4) Aarhus(6) Sonderjyske(11) Aalborg(3) Vejle(12) Odense(9) FC Copenhagen(2) Silkeborg(5)</t>
+    <t>Aalborg,W W W L W L</t>
+  </si>
+  <si>
+    <t>Aarhus,D W W W L W</t>
+  </si>
+  <si>
+    <t>Brondby,W D L W D W</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,W W L W D D</t>
+  </si>
+  <si>
+    <t>Midtjylland,L W W W W D</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,L L L L L D</t>
+  </si>
+  <si>
+    <t>Odense,D W L D W L</t>
+  </si>
+  <si>
+    <t>Randers FC,L L W L D W</t>
+  </si>
+  <si>
+    <t>Silkeborg,W D L W W D</t>
+  </si>
+  <si>
+    <t>Sonderjyske,D L W L L D</t>
+  </si>
+  <si>
+    <t>Vejle,L L D L L L</t>
+  </si>
+  <si>
+    <t>Viborg,D L D D D D</t>
+  </si>
+  <si>
+    <t>Aalborg,2 3 2 1 4 0,(12)</t>
+  </si>
+  <si>
+    <t>Aarhus,2 1 2 1 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Brondby,2 1 0 2 1 3,(9)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,4 2 0 5 1 1,(13)</t>
+  </si>
+  <si>
+    <t>Midtjylland,0 2 1 1 4 2,(10)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,1 0 2 1 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Odense,2 2 0 1 6 1,(12)</t>
+  </si>
+  <si>
+    <t>Randers FC,1 0 3 0 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Silkeborg,2 1 0 4 4 1,(12)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,2 1 1 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Vejle,0 0 1 2 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Viborg,2 2 1 1 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Aalborg,1 2 0 2 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Aarhus,2 0 0 0 4 0,(6)</t>
+  </si>
+  <si>
+    <t>Brondby,0 1 1 1 1 2,(6)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,0 0 1 1 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Midtjylland,2 0 0 0 0 2,(4)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,2 2 3 5 4 2,(18)</t>
+  </si>
+  <si>
+    <t>Odense,2 1 2 1 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Randers FC,2 2 2 1 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Silkeborg,1 1 2 2 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,2 2 0 1 4 1,(10)</t>
+  </si>
+  <si>
+    <t>Vejle,4 1 1 4 6 3,(19)</t>
+  </si>
+  <si>
+    <t>Viborg,2 3 1 1 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Aalborg,3 5 2 3 4 1,(18)</t>
+  </si>
+  <si>
+    <t>Aarhus,4 1 2 1 4 1,(13)</t>
+  </si>
+  <si>
+    <t>Brondby,2 2 1 3 2 5,(15)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,4 2 1 6 2 2,(17)</t>
+  </si>
+  <si>
+    <t>Midtjylland,2 2 1 1 4 4,(14)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,3 2 5 6 5 4,(25)</t>
+  </si>
+  <si>
+    <t>Odense,4 3 2 2 6 3,(20)</t>
+  </si>
+  <si>
+    <t>Randers FC,3 2 5 1 2 3,(16)</t>
+  </si>
+  <si>
+    <t>Silkeborg,3 2 2 6 5 2,(20)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,4 3 1 1 4 2,(15)</t>
+  </si>
+  <si>
+    <t>Vejle,4 1 2 6 6 5,(24)</t>
+  </si>
+  <si>
+    <t>Viborg,4 5 2 2 2 2,(17)</t>
+  </si>
+  <si>
+    <t>Aalborg,2-1 2-3 2-0 2-1 4-0 1-0</t>
+  </si>
+  <si>
+    <t>Aarhus,2-2 1-0 0-2 1-0 4-0 1-0</t>
+  </si>
+  <si>
+    <t>Brondby,2-0 1-1 1-0 2-1 1-1 3-2</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,0-4 0-2 0-1 1-5 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Midtjylland,2-0 2-0 0-1 1-0 4-0 2-2</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,2-1 2-0 3-2 1-5 4-1 2-2</t>
+  </si>
+  <si>
+    <t>Odense,2-2 2-1 2-0 1-1 6-0 1-2</t>
+  </si>
+  <si>
+    <t>Randers FC,2-1 0-2 3-2 1-0 1-1 1-2</t>
+  </si>
+  <si>
+    <t>Silkeborg,2-1 1-1 0-2 2-4 4-1 1-1</t>
+  </si>
+  <si>
+    <t>Sonderjyske,2-2 2-1 1-0 1-0 4-0 1-1</t>
+  </si>
+  <si>
+    <t>Vejle,0-4 1-0 1-1 2-4 6-0 3-2</t>
+  </si>
+  <si>
+    <t>Viborg,2-2 2-3 1-1 1-1 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Aalborg,1 1 2 -1 4 -1,(6)</t>
+  </si>
+  <si>
+    <t>Aarhus,0 1 2 1 -4 1,(1)</t>
+  </si>
+  <si>
+    <t>Brondby,2 0 -1 1 0 1,(3)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,4 2 -1 4 0 0,(9)</t>
+  </si>
+  <si>
+    <t>Midtjylland,-2 2 1 1 4 0,(6)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,-1 -2 -1 -4 -3 0,(-11)</t>
+  </si>
+  <si>
+    <t>Odense,0 1 -2 0 6 -1,(4)</t>
+  </si>
+  <si>
+    <t>Randers FC,-1 -2 1 -1 0 1,(-2)</t>
+  </si>
+  <si>
+    <t>Silkeborg,1 0 -2 2 3 0,(4)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,0 -1 1 -1 -4 0,(-5)</t>
+  </si>
+  <si>
+    <t>Vejle,-4 -1 0 -2 -6 -1,(-14)</t>
+  </si>
+  <si>
+    <t>Viborg,0 -1 0 0 0 0,(-1)</t>
+  </si>
+  <si>
+    <t>Aalborg,Nordsjaelland(8) Viborg(10) Odense(9) Brondby(7) Sonderjyske(11) Aarhus(6)</t>
+  </si>
+  <si>
+    <t>Aarhus,Odense(9) Vejle(12) Silkeborg(5) Sonderjyske(11) Midtjylland(1) Aalborg(3)</t>
+  </si>
+  <si>
+    <t>Brondby,Midtjylland(1) Silkeborg(5) Sonderjyske(11) Aalborg(3) Randers FC(4) Vejle(12)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,Vejle(12) Randers FC(4) Midtjylland(1) Nordsjaelland(8) Viborg(10) Sonderjyske(11)</t>
+  </si>
+  <si>
+    <t>Midtjylland,Brondby(7) Nordsjaelland(8) FC Copenhagen(2) Randers FC(4) Aarhus(6) Nordsjaelland(8)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,Aalborg(3) Midtjylland(1) Randers FC(4) FC Copenhagen(2) Silkeborg(5) Midtjylland(1)</t>
+  </si>
+  <si>
+    <t>Odense,Aarhus(6) Sonderjyske(11) Aalborg(3) Viborg(10) Vejle(12) Randers FC(4)</t>
+  </si>
+  <si>
+    <t>Randers FC,Silkeborg(5) FC Copenhagen(2) Nordsjaelland(8) Midtjylland(1) Brondby(7) Odense(9)</t>
+  </si>
+  <si>
+    <t>Silkeborg,Randers FC(4) Brondby(7) Aarhus(6) Vejle(12) Nordsjaelland(8) Viborg(10)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,Viborg(10) Odense(9) Brondby(7) Aarhus(6) Aalborg(3) FC Copenhagen(2)</t>
+  </si>
+  <si>
+    <t>Vejle,FC Copenhagen(2) Aarhus(6) Viborg(10) Silkeborg(5) Odense(9) Brondby(7)</t>
+  </si>
+  <si>
+    <t>Viborg,Sonderjyske(11) Aalborg(3) Vejle(12) Odense(9) FC Copenhagen(2) Silkeborg(5)</t>
   </si>
   <si>
     <t>dnk_division</t>

--- a/DNK.xlsx
+++ b/DNK.xlsx
@@ -428,256 +428,256 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Aalborg,L D W W D W W W L W L L</t>
-  </si>
-  <si>
-    <t>Aarhus,D L L L L D W W W L W L</t>
-  </si>
-  <si>
-    <t>Brondby,D D L L D W D L W D W W</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,D W W W W W W L W D D L</t>
-  </si>
-  <si>
-    <t>Midtjylland,W W W W W L W W W W D W</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,D W W W W L L L L L D L</t>
-  </si>
-  <si>
-    <t>Odense,D L L D D D W L D W L D</t>
-  </si>
-  <si>
-    <t>Randers FC,D W W W D L L W L D W W</t>
-  </si>
-  <si>
-    <t>Silkeborg,D D W D L W D L W W D D</t>
-  </si>
-  <si>
-    <t>Sonderjyske,W L L L L D L W L L D L</t>
-  </si>
-  <si>
-    <t>Vejle,L D L L L L L D L L L W</t>
-  </si>
-  <si>
-    <t>Viborg,D L L L W D L D D D D W</t>
-  </si>
-  <si>
-    <t>Aalborg,0 0 2 1 1 2 3 2 1 4 0 2,(18)</t>
-  </si>
-  <si>
-    <t>Aarhus,0 1 0 1 0 2 1 2 1 0 1 0,(9)</t>
-  </si>
-  <si>
-    <t>Brondby,1 2 2 0 2 2 1 0 2 1 3 2,(18)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,0 2 4 3 2 4 2 0 5 1 1 1,(25)</t>
-  </si>
-  <si>
-    <t>Midtjylland,1 2 4 2 3 0 2 1 1 4 2 3,(25)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,0 2 3 1 3 1 0 2 1 1 2 0,(16)</t>
-  </si>
-  <si>
-    <t>Odense,1 0 1 1 2 2 2 0 1 6 1 1,(18)</t>
-  </si>
-  <si>
-    <t>Randers FC,1 2 1 2 1 1 0 3 0 1 2 1,(15)</t>
-  </si>
-  <si>
-    <t>Silkeborg,0 0 4 1 0 2 1 0 4 4 1 1,(18)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,1 0 0 0 0 2 1 1 0 0 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Vejle,0 2 1 0 1 0 0 1 2 0 2 2,(11)</t>
-  </si>
-  <si>
-    <t>Viborg,1 0 1 1 2 2 2 1 1 1 1 5,(18)</t>
-  </si>
-  <si>
-    <t>Aalborg,1 0 0 0 1 1 2 0 2 0 1 5,(13)</t>
-  </si>
-  <si>
-    <t>Aarhus,0 2 2 3 2 2 0 0 0 4 0 1,(16)</t>
-  </si>
-  <si>
-    <t>Brondby,1 2 4 1 2 0 1 1 1 1 2 1,(17)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,0 0 2 1 0 0 0 1 1 1 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Midtjylland,0 0 1 0 0 2 0 0 0 0 2 2,(7)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,0 0 1 0 1 2 2 3 5 4 2 2,(22)</t>
-  </si>
-  <si>
-    <t>Odense,1 2 3 1 2 2 1 2 1 0 2 1,(18)</t>
-  </si>
-  <si>
-    <t>Randers FC,1 1 0 1 1 2 2 2 1 1 1 0,(13)</t>
-  </si>
-  <si>
-    <t>Silkeborg,0 0 1 1 3 1 1 2 2 1 1 1,(14)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,0 2 1 2 2 2 2 0 1 4 1 3,(20)</t>
-  </si>
-  <si>
-    <t>Vejle,1 2 4 1 3 4 1 1 4 6 3 0,(30)</t>
-  </si>
-  <si>
-    <t>Viborg,1 2 4 2 0 2 3 1 1 1 1 2,(20)</t>
-  </si>
-  <si>
-    <t>Aalborg,1 0 2 1 2 3 5 2 3 4 1 7,(31)</t>
-  </si>
-  <si>
-    <t>Aarhus,0 3 2 4 2 4 1 2 1 4 1 1,(25)</t>
-  </si>
-  <si>
-    <t>Brondby,2 4 6 1 4 2 2 1 3 2 5 3,(35)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,0 2 6 4 2 4 2 1 6 2 2 3,(34)</t>
-  </si>
-  <si>
-    <t>Midtjylland,1 2 5 2 3 2 2 1 1 4 4 5,(32)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,0 2 4 1 4 3 2 5 6 5 4 2,(38)</t>
-  </si>
-  <si>
-    <t>Odense,2 2 4 2 4 4 3 2 2 6 3 2,(36)</t>
-  </si>
-  <si>
-    <t>Randers FC,2 3 1 3 2 3 2 5 1 2 3 1,(28)</t>
-  </si>
-  <si>
-    <t>Silkeborg,0 0 5 2 3 3 2 2 6 5 2 2,(32)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,1 2 1 2 2 4 3 1 1 4 2 5,(28)</t>
-  </si>
-  <si>
-    <t>Vejle,1 4 5 1 4 4 1 2 6 6 5 2,(41)</t>
-  </si>
-  <si>
-    <t>Viborg,2 2 5 3 2 4 5 2 2 2 2 7,(38)</t>
-  </si>
-  <si>
-    <t>Aalborg,0-1 0-0 2-0 0-1 1-1 2-1 2-3 2-0 2-1 4-0 1-0 2-5</t>
-  </si>
-  <si>
-    <t>Aarhus,0-0 1-2 2-0 1-3 2-0 2-2 1-0 0-2 1-0 4-0 1-0 1-0</t>
-  </si>
-  <si>
-    <t>Brondby,1-1 2-2 4-2 0-1 2-2 2-0 1-1 1-0 2-1 1-1 3-2 2-1</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,0-0 0-2 4-2 1-3 2-0 0-4 0-2 0-1 1-5 1-1 1-1 2-1</t>
-  </si>
-  <si>
-    <t>Midtjylland,0-1 0-2 4-1 0-2 3-0 2-0 2-0 0-1 1-0 4-0 2-2 3-2</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,0-0 0-2 3-1 0-1 3-1 2-1 2-0 3-2 1-5 4-1 2-2 2-0</t>
-  </si>
-  <si>
-    <t>Odense,1-1 0-2 3-1 1-1 2-2 2-2 2-1 2-0 1-1 6-0 1-2 1-1</t>
-  </si>
-  <si>
-    <t>Randers FC,1-1 1-2 1-0 1-2 1-1 2-1 0-2 3-2 1-0 1-1 1-2 1-0</t>
-  </si>
-  <si>
-    <t>Silkeborg,0-0 0-0 4-1 1-1 3-0 2-1 1-1 0-2 2-4 4-1 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Sonderjyske,1-0 0-2 1-0 0-2 2-0 2-2 2-1 1-0 1-0 4-0 1-1 3-2</t>
-  </si>
-  <si>
-    <t>Vejle,1-0 2-2 4-1 0-1 3-1 0-4 1-0 1-1 2-4 6-0 3-2 2-0</t>
-  </si>
-  <si>
-    <t>Viborg,1-1 0-2 4-1 1-2 2-0 2-2 2-3 1-1 1-1 1-1 1-1 2-5</t>
-  </si>
-  <si>
-    <t>Aalborg,-1 0 2 1 0 1 1 2 -1 4 -1 -3,(5)</t>
-  </si>
-  <si>
-    <t>Aarhus,0 -1 -2 -2 -2 0 1 2 1 -4 1 -1,(-7)</t>
-  </si>
-  <si>
-    <t>Brondby,0 0 -2 -1 0 2 0 -1 1 0 1 1,(1)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,0 2 2 2 2 4 2 -1 4 0 0 -1,(16)</t>
-  </si>
-  <si>
-    <t>Midtjylland,1 2 3 2 3 -2 2 1 1 4 0 1,(18)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,0 2 2 1 2 -1 -2 -1 -4 -3 0 -2,(-6)</t>
-  </si>
-  <si>
-    <t>Odense,0 -2 -2 0 0 0 1 -2 0 6 -1 0,(0)</t>
-  </si>
-  <si>
-    <t>Randers FC,0 1 1 1 0 -1 -2 1 -1 0 1 1,(2)</t>
-  </si>
-  <si>
-    <t>Silkeborg,0 0 3 0 -3 1 0 -2 2 3 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,1 -2 -1 -2 -2 0 -1 1 -1 -4 0 -1,(-12)</t>
-  </si>
-  <si>
-    <t>Vejle,-1 0 -3 -1 -2 -4 -1 0 -2 -6 -1 2,(-19)</t>
-  </si>
-  <si>
-    <t>Viborg,0 -2 -3 -1 2 0 -1 0 0 0 0 3,(-2)</t>
-  </si>
-  <si>
-    <t>Aalborg,Midtjylland(1) Silkeborg(5) Aarhus(7) Vejle(12) Randers FC(3) Nordsjaelland(10) Viborg(9) Odense(8) Brondby(6) Sonderjyske(11) Aarhus(7) Viborg(9)</t>
-  </si>
-  <si>
-    <t>Aarhus,Nordsjaelland(10) Randers FC(3) Aalborg(4) FC Copenhagen(2) Viborg(9) Odense(8) Vejle(12) Silkeborg(5) Sonderjyske(11) Midtjylland(1) Aalborg(4) Randers FC(3)</t>
-  </si>
-  <si>
-    <t>Brondby,Viborg(9) Vejle(12) FC Copenhagen(2) Nordsjaelland(10) Odense(8) Midtjylland(1) Silkeborg(5) Sonderjyske(11) Aalborg(4) Randers FC(3) Vejle(12) FC Copenhagen(2)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,Silkeborg(5) Odense(8) Brondby(6) Aarhus(7) Sonderjyske(11) Vejle(12) Randers FC(3) Midtjylland(1) Nordsjaelland(10) Viborg(9) Sonderjyske(11) Brondby(6)</t>
-  </si>
-  <si>
-    <t>Midtjylland,Aalborg(4) Viborg(9) Vejle(12) Sonderjyske(11) Silkeborg(5) Brondby(6) Nordsjaelland(10) FC Copenhagen(2) Randers FC(3) Aarhus(7) Nordsjaelland(10) Sonderjyske(11)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,Aarhus(7) Sonderjyske(11) Odense(8) Brondby(6) Vejle(12) Aalborg(4) Midtjylland(1) Randers FC(3) FC Copenhagen(2) Silkeborg(5) Midtjylland(1) Vejle(12)</t>
-  </si>
-  <si>
-    <t>Odense,Randers FC(3) FC Copenhagen(2) Nordsjaelland(10) Silkeborg(5) Brondby(6) Aarhus(7) Sonderjyske(11) Aalborg(4) Viborg(9) Vejle(12) Randers FC(3) Silkeborg(5)</t>
-  </si>
-  <si>
-    <t>Randers FC,Odense(8) Aarhus(7) Sonderjyske(11) Viborg(9) Aalborg(4) Silkeborg(5) FC Copenhagen(2) Nordsjaelland(10) Midtjylland(1) Brondby(6) Odense(8) Aarhus(7)</t>
-  </si>
-  <si>
-    <t>Silkeborg,FC Copenhagen(2) Aalborg(4) Viborg(9) Odense(8) Midtjylland(1) Randers FC(3) Brondby(6) Aarhus(7) Vejle(12) Nordsjaelland(10) Viborg(9) Odense(8)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,Vejle(12) Nordsjaelland(10) Randers FC(3) Midtjylland(1) FC Copenhagen(2) Viborg(9) Odense(8) Brondby(6) Aarhus(7) Aalborg(4) FC Copenhagen(2) Midtjylland(1)</t>
-  </si>
-  <si>
-    <t>Vejle,Sonderjyske(11) Brondby(6) Midtjylland(1) Aalborg(4) Nordsjaelland(10) FC Copenhagen(2) Aarhus(7) Viborg(9) Silkeborg(5) Odense(8) Brondby(6) Nordsjaelland(10)</t>
-  </si>
-  <si>
-    <t>Viborg,Brondby(6) Midtjylland(1) Silkeborg(5) Randers FC(3) Aarhus(7) Sonderjyske(11) Aalborg(4) Vejle(12) Odense(8) FC Copenhagen(2) Silkeborg(5) Aalborg(4)</t>
+    <t>Aalborg,W W L W L L</t>
+  </si>
+  <si>
+    <t>Aarhus,W W W L W L</t>
+  </si>
+  <si>
+    <t>Brondby,D L W D W W</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,W L W D D L</t>
+  </si>
+  <si>
+    <t>Midtjylland,W W W W D W</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,L L L L D L</t>
+  </si>
+  <si>
+    <t>Odense,W L D W L D</t>
+  </si>
+  <si>
+    <t>Randers FC,L W L D W W</t>
+  </si>
+  <si>
+    <t>Silkeborg,D L W W D D</t>
+  </si>
+  <si>
+    <t>Sonderjyske,L W L L D L</t>
+  </si>
+  <si>
+    <t>Vejle,L D L L L W</t>
+  </si>
+  <si>
+    <t>Viborg,L D D D D W</t>
+  </si>
+  <si>
+    <t>Aalborg,3 2 1 4 0 2,(12)</t>
+  </si>
+  <si>
+    <t>Aarhus,1 2 1 0 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Brondby,1 0 2 1 3 2,(9)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,2 0 5 1 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Midtjylland,2 1 1 4 2 3,(13)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,0 2 1 1 2 0,(6)</t>
+  </si>
+  <si>
+    <t>Odense,2 0 1 6 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Randers FC,0 3 0 1 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Silkeborg,1 0 4 4 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,1 1 0 0 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Vejle,0 1 2 0 2 2,(7)</t>
+  </si>
+  <si>
+    <t>Viborg,2 1 1 1 1 5,(11)</t>
+  </si>
+  <si>
+    <t>Aalborg,2 0 2 0 1 5,(10)</t>
+  </si>
+  <si>
+    <t>Aarhus,0 0 0 4 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Brondby,1 1 1 1 2 1,(7)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,0 1 1 1 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Midtjylland,0 0 0 0 2 2,(4)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,2 3 5 4 2 2,(18)</t>
+  </si>
+  <si>
+    <t>Odense,1 2 1 0 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Randers FC,2 2 1 1 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Silkeborg,1 2 2 1 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,2 0 1 4 1 3,(11)</t>
+  </si>
+  <si>
+    <t>Vejle,1 1 4 6 3 0,(15)</t>
+  </si>
+  <si>
+    <t>Viborg,3 1 1 1 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Aalborg,5 2 3 4 1 7,(22)</t>
+  </si>
+  <si>
+    <t>Aarhus,1 2 1 4 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Brondby,2 1 3 2 5 3,(16)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,2 1 6 2 2 3,(16)</t>
+  </si>
+  <si>
+    <t>Midtjylland,2 1 1 4 4 5,(17)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,2 5 6 5 4 2,(24)</t>
+  </si>
+  <si>
+    <t>Odense,3 2 2 6 3 2,(18)</t>
+  </si>
+  <si>
+    <t>Randers FC,2 5 1 2 3 1,(14)</t>
+  </si>
+  <si>
+    <t>Silkeborg,2 2 6 5 2 2,(19)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,3 1 1 4 2 5,(16)</t>
+  </si>
+  <si>
+    <t>Vejle,1 2 6 6 5 2,(22)</t>
+  </si>
+  <si>
+    <t>Viborg,5 2 2 2 2 7,(20)</t>
+  </si>
+  <si>
+    <t>Aalborg,2-3 2-0 2-1 4-0 1-0 2-5</t>
+  </si>
+  <si>
+    <t>Aarhus,1-0 0-2 1-0 4-0 1-0 1-0</t>
+  </si>
+  <si>
+    <t>Brondby,1-1 1-0 2-1 1-1 3-2 2-1</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,0-2 0-1 1-5 1-1 1-1 2-1</t>
+  </si>
+  <si>
+    <t>Midtjylland,2-0 0-1 1-0 4-0 2-2 3-2</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,2-0 3-2 1-5 4-1 2-2 2-0</t>
+  </si>
+  <si>
+    <t>Odense,2-1 2-0 1-1 6-0 1-2 1-1</t>
+  </si>
+  <si>
+    <t>Randers FC,0-2 3-2 1-0 1-1 1-2 1-0</t>
+  </si>
+  <si>
+    <t>Silkeborg,1-1 0-2 2-4 4-1 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Sonderjyske,2-1 1-0 1-0 4-0 1-1 3-2</t>
+  </si>
+  <si>
+    <t>Vejle,1-0 1-1 2-4 6-0 3-2 2-0</t>
+  </si>
+  <si>
+    <t>Viborg,2-3 1-1 1-1 1-1 1-1 2-5</t>
+  </si>
+  <si>
+    <t>Aalborg,1 2 -1 4 -1 -3,(2)</t>
+  </si>
+  <si>
+    <t>Aarhus,1 2 1 -4 1 -1,(0)</t>
+  </si>
+  <si>
+    <t>Brondby,0 -1 1 0 1 1,(2)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,2 -1 4 0 0 -1,(4)</t>
+  </si>
+  <si>
+    <t>Midtjylland,2 1 1 4 0 1,(9)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,-2 -1 -4 -3 0 -2,(-12)</t>
+  </si>
+  <si>
+    <t>Odense,1 -2 0 6 -1 0,(4)</t>
+  </si>
+  <si>
+    <t>Randers FC,-2 1 -1 0 1 1,(0)</t>
+  </si>
+  <si>
+    <t>Silkeborg,0 -2 2 3 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,-1 1 -1 -4 0 -1,(-6)</t>
+  </si>
+  <si>
+    <t>Vejle,-1 0 -2 -6 -1 2,(-8)</t>
+  </si>
+  <si>
+    <t>Viborg,-1 0 0 0 0 3,(2)</t>
+  </si>
+  <si>
+    <t>Aalborg,Viborg(9) Odense(8) Brondby(6) Sonderjyske(11) Aarhus(7) Viborg(9)</t>
+  </si>
+  <si>
+    <t>Aarhus,Vejle(12) Silkeborg(5) Sonderjyske(11) Midtjylland(1) Aalborg(4) Randers FC(3)</t>
+  </si>
+  <si>
+    <t>Brondby,Silkeborg(5) Sonderjyske(11) Aalborg(4) Randers FC(3) Vejle(12) FC Copenhagen(2)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,Randers FC(3) Midtjylland(1) Nordsjaelland(10) Viborg(9) Sonderjyske(11) Brondby(6)</t>
+  </si>
+  <si>
+    <t>Midtjylland,Nordsjaelland(10) FC Copenhagen(2) Randers FC(3) Aarhus(7) Nordsjaelland(10) Sonderjyske(11)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,Midtjylland(1) Randers FC(3) FC Copenhagen(2) Silkeborg(5) Midtjylland(1) Vejle(12)</t>
+  </si>
+  <si>
+    <t>Odense,Sonderjyske(11) Aalborg(4) Viborg(9) Vejle(12) Randers FC(3) Silkeborg(5)</t>
+  </si>
+  <si>
+    <t>Randers FC,FC Copenhagen(2) Nordsjaelland(10) Midtjylland(1) Brondby(6) Odense(8) Aarhus(7)</t>
+  </si>
+  <si>
+    <t>Silkeborg,Brondby(6) Aarhus(7) Vejle(12) Nordsjaelland(10) Viborg(9) Odense(8)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,Odense(8) Brondby(6) Aarhus(7) Aalborg(4) FC Copenhagen(2) Midtjylland(1)</t>
+  </si>
+  <si>
+    <t>Vejle,Aarhus(7) Viborg(9) Silkeborg(5) Odense(8) Brondby(6) Nordsjaelland(10)</t>
+  </si>
+  <si>
+    <t>Viborg,Aalborg(4) Vejle(12) Odense(8) FC Copenhagen(2) Silkeborg(5) Aalborg(4)</t>
   </si>
   <si>
     <t>dnk_division</t>

--- a/DNK.xlsx
+++ b/DNK.xlsx
@@ -440,256 +440,256 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Aalborg,D L D W W D W W W L W L L W D</t>
-  </si>
-  <si>
-    <t>Aarhus,D D L L L L D W W W L W L D W</t>
-  </si>
-  <si>
-    <t>Brondby,D D D L L D W D L W D W W W W</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,D D W W W W W W L W D D L W D</t>
-  </si>
-  <si>
-    <t>Midtjylland,L W W W W W L W W W W D W W L</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,L D W W W W L L L L L D L L D</t>
-  </si>
-  <si>
-    <t>Odense,W D L L D D D W L D W L D D L</t>
-  </si>
-  <si>
-    <t>Randers FC,W D W W W D L L W L D W W L D</t>
-  </si>
-  <si>
-    <t>Silkeborg,D D D W D L W D L W W D D W D</t>
-  </si>
-  <si>
-    <t>Sonderjyske,D W L L L L D L W L L D L L L</t>
-  </si>
-  <si>
-    <t>Vejle,L L D L L L L L D L L L W L W</t>
-  </si>
-  <si>
-    <t>Viborg,W D L L L W D L D D D D W L D</t>
-  </si>
-  <si>
-    <t>Aalborg,2 0 0 2 1 1 2 3 2 1 4 0 2 2 1,(23)</t>
-  </si>
-  <si>
-    <t>Aarhus,1 0 1 0 1 0 2 1 2 1 0 1 0 0 3,(13)</t>
-  </si>
-  <si>
-    <t>Brondby,1 1 2 2 0 2 2 1 0 2 1 3 2 1 2,(22)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,2 0 2 4 3 2 4 2 0 5 1 1 1 3 0,(30)</t>
-  </si>
-  <si>
-    <t>Midtjylland,1 1 2 4 2 3 0 2 1 1 4 2 3 3 0,(29)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,1 0 2 3 1 3 1 0 2 1 1 2 0 0 2,(19)</t>
-  </si>
-  <si>
-    <t>Odense,2 1 0 1 1 2 2 2 0 1 6 1 1 0 1,(21)</t>
-  </si>
-  <si>
-    <t>Randers FC,2 1 2 1 2 1 1 0 3 0 1 2 1 1 1,(19)</t>
-  </si>
-  <si>
-    <t>Silkeborg,0 0 0 4 1 0 2 1 0 4 4 1 1 6 0,(24)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,0 1 0 0 0 0 2 1 1 0 0 1 2 0 1,(9)</t>
-  </si>
-  <si>
-    <t>Vejle,0 0 2 1 0 1 0 0 1 2 0 2 2 0 3,(14)</t>
-  </si>
-  <si>
-    <t>Viborg,2 1 0 1 1 2 2 2 1 1 1 1 5 0 2,(22)</t>
-  </si>
-  <si>
-    <t>Aalborg,2 1 0 0 0 1 1 2 0 2 0 1 5 0 1,(16)</t>
-  </si>
-  <si>
-    <t>Aarhus,1 0 2 2 3 2 2 0 0 0 4 0 1 0 0,(17)</t>
-  </si>
-  <si>
-    <t>Brondby,1 1 2 4 1 2 0 1 1 1 1 2 1 0 1,(19)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,2 0 0 2 1 0 0 0 1 1 1 1 2 0 0,(11)</t>
-  </si>
-  <si>
-    <t>Midtjylland,2 0 0 1 0 0 2 0 0 0 0 2 2 1 3,(13)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,2 0 0 1 0 1 2 2 3 5 4 2 2 2 2,(28)</t>
-  </si>
-  <si>
-    <t>Odense,1 1 2 3 1 2 2 1 2 1 0 2 1 0 2,(21)</t>
-  </si>
-  <si>
-    <t>Randers FC,0 1 1 0 1 1 2 2 2 1 1 1 0 3 1,(17)</t>
-  </si>
-  <si>
-    <t>Silkeborg,0 0 0 1 1 3 1 1 2 2 1 1 1 0 0,(14)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,0 0 2 1 2 2 2 2 0 1 4 1 3 6 3,(29)</t>
-  </si>
-  <si>
-    <t>Vejle,2 1 2 4 1 3 4 1 1 4 6 3 0 3 1,(36)</t>
-  </si>
-  <si>
-    <t>Viborg,1 1 2 4 2 0 2 3 1 1 1 1 2 1 2,(24)</t>
-  </si>
-  <si>
-    <t>Aalborg,4 1 0 2 1 2 3 5 2 3 4 1 7 2 2,(39)</t>
-  </si>
-  <si>
-    <t>Aarhus,2 0 3 2 4 2 4 1 2 1 4 1 1 0 3,(30)</t>
-  </si>
-  <si>
-    <t>Brondby,2 2 4 6 1 4 2 2 1 3 2 5 3 1 3,(41)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,4 0 2 6 4 2 4 2 1 6 2 2 3 3 0,(41)</t>
-  </si>
-  <si>
-    <t>Midtjylland,3 1 2 5 2 3 2 2 1 1 4 4 5 4 3,(42)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,3 0 2 4 1 4 3 2 5 6 5 4 2 2 4,(47)</t>
-  </si>
-  <si>
-    <t>Odense,3 2 2 4 2 4 4 3 2 2 6 3 2 0 3,(42)</t>
-  </si>
-  <si>
-    <t>Randers FC,2 2 3 1 3 2 3 2 5 1 2 3 1 4 2,(36)</t>
-  </si>
-  <si>
-    <t>Silkeborg,0 0 0 5 2 3 3 2 2 6 5 2 2 6 0,(38)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,0 1 2 1 2 2 4 3 1 1 4 2 5 6 4,(38)</t>
-  </si>
-  <si>
-    <t>Vejle,2 1 4 5 1 4 4 1 2 6 6 5 2 3 4,(50)</t>
-  </si>
-  <si>
-    <t>Viborg,3 2 2 5 3 2 4 5 2 2 2 2 7 1 4,(46)</t>
-  </si>
-  <si>
-    <t>Aalborg,2-2 0-1 0-0 2-0 0-1 1-1 2-1 2-3 2-0 2-1 4-0 1-0 2-5 0-2 1-1</t>
-  </si>
-  <si>
-    <t>Aarhus,1-1 0-0 1-2 2-0 1-3 2-0 2-2 1-0 0-2 1-0 4-0 1-0 1-0 0-0 3-0</t>
-  </si>
-  <si>
-    <t>Brondby,1-1 1-1 2-2 4-2 0-1 2-2 2-0 1-1 1-0 2-1 1-1 3-2 2-1 0-1 2-1</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,2-2 0-0 0-2 4-2 1-3 2-0 0-4 0-2 0-1 1-5 1-1 1-1 2-1 3-0 0-0</t>
-  </si>
-  <si>
-    <t>Midtjylland,1-2 0-1 0-2 4-1 0-2 3-0 2-0 2-0 0-1 1-0 4-0 2-2 3-2 1-3 3-0</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,1-2 0-0 0-2 3-1 0-1 3-1 2-1 2-0 3-2 1-5 4-1 2-2 2-0 0-2 2-2</t>
-  </si>
-  <si>
-    <t>Odense,1-2 1-1 0-2 3-1 1-1 2-2 2-2 2-1 2-0 1-1 6-0 1-2 1-1 0-0 2-1</t>
-  </si>
-  <si>
-    <t>Randers FC,0-2 1-1 1-2 1-0 1-2 1-1 2-1 0-2 3-2 1-0 1-1 1-2 1-0 1-3 1-1</t>
-  </si>
-  <si>
-    <t>Silkeborg,0-0 0-0 0-0 4-1 1-1 3-0 2-1 1-1 0-2 2-4 4-1 1-1 1-1 0-6 0-0</t>
-  </si>
-  <si>
-    <t>Sonderjyske,0-0 1-0 0-2 1-0 0-2 2-0 2-2 2-1 1-0 1-0 4-0 1-1 3-2 0-6 3-1</t>
-  </si>
-  <si>
-    <t>Vejle,0-2 1-0 2-2 4-1 0-1 3-1 0-4 1-0 1-1 2-4 6-0 3-2 2-0 3-0 3-1</t>
-  </si>
-  <si>
-    <t>Viborg,1-2 1-1 0-2 4-1 1-2 2-0 2-2 2-3 1-1 1-1 1-1 1-1 2-5 0-1 2-2</t>
-  </si>
-  <si>
-    <t>Aalborg,0 -1 0 2 1 0 1 1 2 -1 4 -1 -3 2 0,(7)</t>
-  </si>
-  <si>
-    <t>Aarhus,0 0 -1 -2 -2 -2 0 1 2 1 -4 1 -1 0 3,(-4)</t>
-  </si>
-  <si>
-    <t>Brondby,0 0 0 -2 -1 0 2 0 -1 1 0 1 1 1 1,(3)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,0 0 2 2 2 2 4 2 -1 4 0 0 -1 3 0,(19)</t>
-  </si>
-  <si>
-    <t>Midtjylland,-1 1 2 3 2 3 -2 2 1 1 4 0 1 2 -3,(16)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,-1 0 2 2 1 2 -1 -2 -1 -4 -3 0 -2 -2 0,(-9)</t>
-  </si>
-  <si>
-    <t>Odense,1 0 -2 -2 0 0 0 1 -2 0 6 -1 0 0 -1,(0)</t>
-  </si>
-  <si>
-    <t>Randers FC,2 0 1 1 1 0 -1 -2 1 -1 0 1 1 -2 0,(2)</t>
-  </si>
-  <si>
-    <t>Silkeborg,0 0 0 3 0 -3 1 0 -2 2 3 0 0 6 0,(10)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,0 1 -2 -1 -2 -2 0 -1 1 -1 -4 0 -1 -6 -2,(-20)</t>
-  </si>
-  <si>
-    <t>Vejle,-2 -1 0 -3 -1 -2 -4 -1 0 -2 -6 -1 2 -3 2,(-22)</t>
-  </si>
-  <si>
-    <t>Viborg,1 0 -2 -3 -1 2 0 -1 0 0 0 0 3 -1 0,(-2)</t>
-  </si>
-  <si>
-    <t>Aalborg,FC Copenhagen(2) Midtjylland(1) Silkeborg(6) Aarhus(7) Vejle(12) Randers FC(4) Nordsjaelland(10) Viborg(9) Odense(8) Brondby(5) Sonderjyske(11) Aarhus(7) Viborg(9) Nordsjaelland(10) Randers FC(4)</t>
-  </si>
-  <si>
-    <t>Aarhus,Brondby(5) Nordsjaelland(10) Randers FC(4) Aalborg(3) FC Copenhagen(2) Viborg(9) Odense(8) Vejle(12) Silkeborg(6) Sonderjyske(11) Midtjylland(1) Aalborg(3) Randers FC(4) Odense(8) Midtjylland(1)</t>
-  </si>
-  <si>
-    <t>Brondby,Aarhus(7) Viborg(9) Vejle(12) FC Copenhagen(2) Nordsjaelland(10) Odense(8) Midtjylland(1) Silkeborg(6) Sonderjyske(11) Aalborg(3) Randers FC(4) Vejle(12) FC Copenhagen(2) Viborg(9) Odense(8)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,Aalborg(3) Silkeborg(6) Odense(8) Brondby(5) Aarhus(7) Sonderjyske(11) Vejle(12) Randers FC(4) Midtjylland(1) Nordsjaelland(10) Viborg(9) Sonderjyske(11) Brondby(5) Vejle(12) Silkeborg(6)</t>
-  </si>
-  <si>
-    <t>Midtjylland,Odense(8) Aalborg(3) Viborg(9) Vejle(12) Sonderjyske(11) Silkeborg(6) Brondby(5) Nordsjaelland(10) FC Copenhagen(2) Randers FC(4) Aarhus(7) Nordsjaelland(10) Sonderjyske(11) Randers FC(4) Aarhus(7)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,Viborg(9) Aarhus(7) Sonderjyske(11) Odense(8) Brondby(5) Vejle(12) Aalborg(3) Midtjylland(1) Randers FC(4) FC Copenhagen(2) Silkeborg(6) Midtjylland(1) Vejle(12) Aalborg(3) Viborg(9)</t>
-  </si>
-  <si>
-    <t>Odense,Midtjylland(1) Randers FC(4) FC Copenhagen(2) Nordsjaelland(10) Silkeborg(6) Brondby(5) Aarhus(7) Sonderjyske(11) Aalborg(3) Viborg(9) Vejle(12) Randers FC(4) Silkeborg(6) Aarhus(7) Brondby(5)</t>
-  </si>
-  <si>
-    <t>Randers FC,Vejle(12) Odense(8) Aarhus(7) Sonderjyske(11) Viborg(9) Aalborg(3) Silkeborg(6) FC Copenhagen(2) Nordsjaelland(10) Midtjylland(1) Brondby(5) Odense(8) Aarhus(7) Midtjylland(1) Aalborg(3)</t>
-  </si>
-  <si>
-    <t>Silkeborg,Sonderjyske(11) FC Copenhagen(2) Aalborg(3) Viborg(9) Odense(8) Midtjylland(1) Randers FC(4) Brondby(5) Aarhus(7) Vejle(12) Nordsjaelland(10) Viborg(9) Odense(8) Sonderjyske(11) FC Copenhagen(2)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,Silkeborg(6) Vejle(12) Nordsjaelland(10) Randers FC(4) Midtjylland(1) FC Copenhagen(2) Viborg(9) Odense(8) Brondby(5) Aarhus(7) Aalborg(3) FC Copenhagen(2) Midtjylland(1) Silkeborg(6) Vejle(12)</t>
-  </si>
-  <si>
-    <t>Vejle,Randers FC(4) Sonderjyske(11) Brondby(5) Midtjylland(1) Aalborg(3) Nordsjaelland(10) FC Copenhagen(2) Aarhus(7) Viborg(9) Silkeborg(6) Odense(8) Brondby(5) Nordsjaelland(10) FC Copenhagen(2) Sonderjyske(11)</t>
-  </si>
-  <si>
-    <t>Viborg,Nordsjaelland(10) Brondby(5) Midtjylland(1) Silkeborg(6) Randers FC(4) Aarhus(7) Sonderjyske(11) Aalborg(3) Vejle(12) Odense(8) FC Copenhagen(2) Silkeborg(6) Aalborg(3) Brondby(5) Nordsjaelland(10)</t>
+    <t>Aalborg,L W L L W D</t>
+  </si>
+  <si>
+    <t>Aarhus,W L W L D W</t>
+  </si>
+  <si>
+    <t>Brondby,W D W W W W</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,W D D L W D</t>
+  </si>
+  <si>
+    <t>Midtjylland,W W D W W L</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,L L D L L D</t>
+  </si>
+  <si>
+    <t>Odense,D W L D D L</t>
+  </si>
+  <si>
+    <t>Randers FC,L D W W L D</t>
+  </si>
+  <si>
+    <t>Silkeborg,W W D D W D</t>
+  </si>
+  <si>
+    <t>Sonderjyske,L L D L L L</t>
+  </si>
+  <si>
+    <t>Vejle,L L L W L W</t>
+  </si>
+  <si>
+    <t>Viborg,D D D W L D</t>
+  </si>
+  <si>
+    <t>Aalborg,1 4 0 2 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Aarhus,1 0 1 0 0 3,(5)</t>
+  </si>
+  <si>
+    <t>Brondby,2 1 3 2 1 2,(11)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,5 1 1 1 3 0,(11)</t>
+  </si>
+  <si>
+    <t>Midtjylland,1 4 2 3 3 0,(13)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,1 1 2 0 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Odense,1 6 1 1 0 1,(10)</t>
+  </si>
+  <si>
+    <t>Randers FC,0 1 2 1 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Silkeborg,4 4 1 1 6 0,(16)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,0 0 1 2 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Vejle,2 0 2 2 0 3,(9)</t>
+  </si>
+  <si>
+    <t>Viborg,1 1 1 5 0 2,(10)</t>
+  </si>
+  <si>
+    <t>Aalborg,2 0 1 5 0 1,(9)</t>
+  </si>
+  <si>
+    <t>Aarhus,0 4 0 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Brondby,1 1 2 1 0 1,(6)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,1 1 1 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Midtjylland,0 0 2 2 1 3,(8)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,5 4 2 2 2 2,(17)</t>
+  </si>
+  <si>
+    <t>Odense,1 0 2 1 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Randers FC,1 1 1 0 3 1,(7)</t>
+  </si>
+  <si>
+    <t>Silkeborg,2 1 1 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,1 4 1 3 6 3,(18)</t>
+  </si>
+  <si>
+    <t>Vejle,4 6 3 0 3 1,(17)</t>
+  </si>
+  <si>
+    <t>Viborg,1 1 1 2 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Aalborg,3 4 1 7 2 2,(19)</t>
+  </si>
+  <si>
+    <t>Aarhus,1 4 1 1 0 3,(10)</t>
+  </si>
+  <si>
+    <t>Brondby,3 2 5 3 1 3,(17)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,6 2 2 3 3 0,(16)</t>
+  </si>
+  <si>
+    <t>Midtjylland,1 4 4 5 4 3,(21)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,6 5 4 2 2 4,(23)</t>
+  </si>
+  <si>
+    <t>Odense,2 6 3 2 0 3,(16)</t>
+  </si>
+  <si>
+    <t>Randers FC,1 2 3 1 4 2,(13)</t>
+  </si>
+  <si>
+    <t>Silkeborg,6 5 2 2 6 0,(21)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,1 4 2 5 6 4,(22)</t>
+  </si>
+  <si>
+    <t>Vejle,6 6 5 2 3 4,(26)</t>
+  </si>
+  <si>
+    <t>Viborg,2 2 2 7 1 4,(18)</t>
+  </si>
+  <si>
+    <t>Aalborg,2-1 4-0 1-0 2-5 0-2 1-1</t>
+  </si>
+  <si>
+    <t>Aarhus,1-0 4-0 1-0 1-0 0-0 3-0</t>
+  </si>
+  <si>
+    <t>Brondby,2-1 1-1 3-2 2-1 0-1 2-1</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,1-5 1-1 1-1 2-1 3-0 0-0</t>
+  </si>
+  <si>
+    <t>Midtjylland,1-0 4-0 2-2 3-2 1-3 3-0</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,1-5 4-1 2-2 2-0 0-2 2-2</t>
+  </si>
+  <si>
+    <t>Odense,1-1 6-0 1-2 1-1 0-0 2-1</t>
+  </si>
+  <si>
+    <t>Randers FC,1-0 1-1 1-2 1-0 1-3 1-1</t>
+  </si>
+  <si>
+    <t>Silkeborg,2-4 4-1 1-1 1-1 0-6 0-0</t>
+  </si>
+  <si>
+    <t>Sonderjyske,1-0 4-0 1-1 3-2 0-6 3-1</t>
+  </si>
+  <si>
+    <t>Vejle,2-4 6-0 3-2 2-0 3-0 3-1</t>
+  </si>
+  <si>
+    <t>Viborg,1-1 1-1 1-1 2-5 0-1 2-2</t>
+  </si>
+  <si>
+    <t>Aalborg,-1 4 -1 -3 2 0,(1)</t>
+  </si>
+  <si>
+    <t>Aarhus,1 -4 1 -1 0 3,(0)</t>
+  </si>
+  <si>
+    <t>Brondby,1 0 1 1 1 1,(5)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,4 0 0 -1 3 0,(6)</t>
+  </si>
+  <si>
+    <t>Midtjylland,1 4 0 1 2 -3,(5)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,-4 -3 0 -2 -2 0,(-11)</t>
+  </si>
+  <si>
+    <t>Odense,0 6 -1 0 0 -1,(4)</t>
+  </si>
+  <si>
+    <t>Randers FC,-1 0 1 1 -2 0,(-1)</t>
+  </si>
+  <si>
+    <t>Silkeborg,2 3 0 0 6 0,(11)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,-1 -4 0 -1 -6 -2,(-14)</t>
+  </si>
+  <si>
+    <t>Vejle,-2 -6 -1 2 -3 2,(-8)</t>
+  </si>
+  <si>
+    <t>Viborg,0 0 0 3 -1 0,(2)</t>
+  </si>
+  <si>
+    <t>Aalborg,Brondby(5) Sonderjyske(11) Aarhus(7) Viborg(9) Nordsjaelland(10) Randers FC(4)</t>
+  </si>
+  <si>
+    <t>Aarhus,Sonderjyske(11) Midtjylland(1) Aalborg(3) Randers FC(4) Odense(8) Midtjylland(1)</t>
+  </si>
+  <si>
+    <t>Brondby,Aalborg(3) Randers FC(4) Vejle(12) FC Copenhagen(2) Viborg(9) Odense(8)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,Nordsjaelland(10) Viborg(9) Sonderjyske(11) Brondby(5) Vejle(12) Silkeborg(6)</t>
+  </si>
+  <si>
+    <t>Midtjylland,Randers FC(4) Aarhus(7) Nordsjaelland(10) Sonderjyske(11) Randers FC(4) Aarhus(7)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,FC Copenhagen(2) Silkeborg(6) Midtjylland(1) Vejle(12) Aalborg(3) Viborg(9)</t>
+  </si>
+  <si>
+    <t>Odense,Viborg(9) Vejle(12) Randers FC(4) Silkeborg(6) Aarhus(7) Brondby(5)</t>
+  </si>
+  <si>
+    <t>Randers FC,Midtjylland(1) Brondby(5) Odense(8) Aarhus(7) Midtjylland(1) Aalborg(3)</t>
+  </si>
+  <si>
+    <t>Silkeborg,Vejle(12) Nordsjaelland(10) Viborg(9) Odense(8) Sonderjyske(11) FC Copenhagen(2)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,Aarhus(7) Aalborg(3) FC Copenhagen(2) Midtjylland(1) Silkeborg(6) Vejle(12)</t>
+  </si>
+  <si>
+    <t>Vejle,Silkeborg(6) Odense(8) Brondby(5) Nordsjaelland(10) FC Copenhagen(2) Sonderjyske(11)</t>
+  </si>
+  <si>
+    <t>Viborg,Odense(8) FC Copenhagen(2) Silkeborg(6) Aalborg(3) Brondby(5) Nordsjaelland(10)</t>
   </si>
   <si>
     <t>dnk_division</t>

--- a/DNK.xlsx
+++ b/DNK.xlsx
@@ -473,256 +473,256 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Aalborg,W L L W D W</t>
-  </si>
-  <si>
-    <t>Aarhus,L W L D W D</t>
-  </si>
-  <si>
-    <t>Brondby,D W W W W W</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,D D L W D D</t>
-  </si>
-  <si>
-    <t>Midtjylland,W D W W L L</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,L D L L D D</t>
-  </si>
-  <si>
-    <t>Odense,W L D D L L</t>
-  </si>
-  <si>
-    <t>Randers FC,D W W L D W</t>
-  </si>
-  <si>
-    <t>Silkeborg,W D D W D D</t>
-  </si>
-  <si>
-    <t>Sonderjyske,L D L L L L</t>
-  </si>
-  <si>
-    <t>Vejle,L L W L W L</t>
-  </si>
-  <si>
-    <t>Viborg,D D W L D W</t>
-  </si>
-  <si>
-    <t>Aalborg,4 0 2 2 1 3,(12)</t>
-  </si>
-  <si>
-    <t>Aarhus,0 1 0 0 3 1,(5)</t>
-  </si>
-  <si>
-    <t>Brondby,1 3 2 1 2 2,(11)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,1 1 1 3 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Midtjylland,4 2 3 3 0 1,(13)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,1 2 0 0 2 1,(6)</t>
-  </si>
-  <si>
-    <t>Odense,6 1 1 0 1 2,(11)</t>
-  </si>
-  <si>
-    <t>Randers FC,1 2 1 1 1 4,(10)</t>
-  </si>
-  <si>
-    <t>Silkeborg,4 1 1 6 0 1,(13)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,0 1 2 0 1 1,(5)</t>
-  </si>
-  <si>
-    <t>Vejle,0 2 2 0 3 1,(8)</t>
-  </si>
-  <si>
-    <t>Viborg,1 1 5 0 2 3,(12)</t>
-  </si>
-  <si>
-    <t>Aalborg,0 1 5 0 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Aarhus,4 0 1 0 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Brondby,1 2 1 0 1 1,(6)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,1 1 2 0 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Midtjylland,0 2 2 1 3 2,(10)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,4 2 2 2 2 1,(13)</t>
-  </si>
-  <si>
-    <t>Odense,0 2 1 0 2 3,(8)</t>
-  </si>
-  <si>
-    <t>Randers FC,1 1 0 3 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Silkeborg,1 1 1 0 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,4 1 3 6 3 3,(20)</t>
-  </si>
-  <si>
-    <t>Vejle,6 3 0 3 1 4,(17)</t>
-  </si>
-  <si>
-    <t>Viborg,1 1 2 1 2 2,(9)</t>
-  </si>
-  <si>
-    <t>Aalborg,4 1 7 2 2 4,(20)</t>
-  </si>
-  <si>
-    <t>Aarhus,4 1 1 0 3 2,(11)</t>
-  </si>
-  <si>
-    <t>Brondby,2 5 3 1 3 3,(17)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,2 2 3 3 0 2,(12)</t>
-  </si>
-  <si>
-    <t>Midtjylland,4 4 5 4 3 3,(23)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,5 4 2 2 4 2,(19)</t>
-  </si>
-  <si>
-    <t>Odense,6 3 2 0 3 5,(19)</t>
-  </si>
-  <si>
-    <t>Randers FC,2 3 1 4 2 5,(17)</t>
-  </si>
-  <si>
-    <t>Silkeborg,5 2 2 6 0 2,(17)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,4 2 5 6 4 4,(25)</t>
-  </si>
-  <si>
-    <t>Vejle,6 5 2 3 4 5,(25)</t>
-  </si>
-  <si>
-    <t>Viborg,2 2 7 1 4 5,(21)</t>
-  </si>
-  <si>
-    <t>Aalborg,4-0 1-0 2-5 0-2 1-1 1-3</t>
-  </si>
-  <si>
-    <t>Aarhus,4-0 1-0 1-0 0-0 3-0 1-1</t>
-  </si>
-  <si>
-    <t>Brondby,1-1 3-2 2-1 0-1 2-1 1-2</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,1-1 1-1 2-1 3-0 0-0 1-1</t>
-  </si>
-  <si>
-    <t>Midtjylland,4-0 2-2 3-2 1-3 3-0 1-2</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,4-1 2-2 2-0 0-2 2-2 1-1</t>
-  </si>
-  <si>
-    <t>Odense,6-0 1-2 1-1 0-0 2-1 2-3</t>
-  </si>
-  <si>
-    <t>Randers FC,1-1 1-2 1-0 1-3 1-1 4-1</t>
-  </si>
-  <si>
-    <t>Silkeborg,4-1 1-1 1-1 0-6 0-0 1-1</t>
-  </si>
-  <si>
-    <t>Sonderjyske,4-0 1-1 3-2 0-6 3-1 1-3</t>
-  </si>
-  <si>
-    <t>Vejle,6-0 3-2 2-0 3-0 3-1 4-1</t>
-  </si>
-  <si>
-    <t>Viborg,1-1 1-1 2-5 0-1 2-2 2-3</t>
-  </si>
-  <si>
-    <t>Aalborg,4 -1 -3 2 0 2,(4)</t>
-  </si>
-  <si>
-    <t>Aarhus,-4 1 -1 0 3 0,(-1)</t>
-  </si>
-  <si>
-    <t>Brondby,0 1 1 1 1 1,(5)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,0 0 -1 3 0 0,(2)</t>
-  </si>
-  <si>
-    <t>Midtjylland,4 0 1 2 -3 -1,(3)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,-3 0 -2 -2 0 0,(-7)</t>
-  </si>
-  <si>
-    <t>Odense,6 -1 0 0 -1 -1,(3)</t>
-  </si>
-  <si>
-    <t>Randers FC,0 1 1 -2 0 3,(3)</t>
-  </si>
-  <si>
-    <t>Silkeborg,3 0 0 6 0 0,(9)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,-4 0 -1 -6 -2 -2,(-15)</t>
-  </si>
-  <si>
-    <t>Vejle,-6 -1 2 -3 2 -3,(-9)</t>
-  </si>
-  <si>
-    <t>Viborg,0 0 3 -1 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Aalborg,Sonderjyske(11) Aarhus(7) Viborg(8) Nordsjaelland(9) Randers FC(4) Sonderjyske(11)</t>
-  </si>
-  <si>
-    <t>Aarhus,Midtjylland(1) Aalborg(3) Randers FC(4) Odense(10) Midtjylland(1) FC Copenhagen(2)</t>
-  </si>
-  <si>
-    <t>Brondby,Randers FC(4) Vejle(12) FC Copenhagen(2) Viborg(8) Odense(10) Midtjylland(1)</t>
-  </si>
-  <si>
-    <t>FC Copenhagen,Viborg(8) Sonderjyske(11) Brondby(5) Vejle(12) Silkeborg(6) Aarhus(7)</t>
-  </si>
-  <si>
-    <t>Midtjylland,Aarhus(7) Nordsjaelland(9) Sonderjyske(11) Randers FC(4) Aarhus(7) Brondby(5)</t>
-  </si>
-  <si>
-    <t>Nordsjaelland,Silkeborg(6) Midtjylland(1) Vejle(12) Aalborg(3) Viborg(8) Silkeborg(6)</t>
-  </si>
-  <si>
-    <t>Odense,Vejle(12) Randers FC(4) Silkeborg(6) Aarhus(7) Brondby(5) Viborg(8)</t>
-  </si>
-  <si>
-    <t>Randers FC,Brondby(5) Odense(10) Aarhus(7) Midtjylland(1) Aalborg(3) Vejle(12)</t>
-  </si>
-  <si>
-    <t>Silkeborg,Nordsjaelland(9) Viborg(8) Odense(10) Sonderjyske(11) FC Copenhagen(2) Nordsjaelland(9)</t>
-  </si>
-  <si>
-    <t>Sonderjyske,Aalborg(3) FC Copenhagen(2) Midtjylland(1) Silkeborg(6) Vejle(12) Aalborg(3)</t>
-  </si>
-  <si>
-    <t>Vejle,Odense(10) Brondby(5) Nordsjaelland(9) FC Copenhagen(2) Sonderjyske(11) Randers FC(4)</t>
-  </si>
-  <si>
-    <t>Viborg,FC Copenhagen(2) Silkeborg(6) Aalborg(3) Brondby(5) Nordsjaelland(9) Odense(10)</t>
+    <t>Aalborg,D L D W W D W W W L W L L W D W</t>
+  </si>
+  <si>
+    <t>Aarhus,D D L L L L D W W W L W L D W D</t>
+  </si>
+  <si>
+    <t>Brondby,D D D L L D W D L W D W W W W W</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,D D W W W W W W L W D D L W D D</t>
+  </si>
+  <si>
+    <t>Midtjylland,L W W W W W L W W W W D W W L L</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,L D W W W W L L L L L D L L D D</t>
+  </si>
+  <si>
+    <t>Odense,W D L L D D D W L D W L D D L L</t>
+  </si>
+  <si>
+    <t>Randers FC,W D W W W D L L W L D W W L D W</t>
+  </si>
+  <si>
+    <t>Silkeborg,D D D W D L W D L W W D D W D D</t>
+  </si>
+  <si>
+    <t>Sonderjyske,D W L L L L D L W L L D L L L L</t>
+  </si>
+  <si>
+    <t>Vejle,L L D L L L L L D L L L W L W L</t>
+  </si>
+  <si>
+    <t>Viborg,W D L L L W D L D D D D W L D W</t>
+  </si>
+  <si>
+    <t>Aalborg,2 0 0 2 1 1 2 3 2 1 4 0 2 2 1 3,(26)</t>
+  </si>
+  <si>
+    <t>Aarhus,1 0 1 0 1 0 2 1 2 1 0 1 0 0 3 1,(14)</t>
+  </si>
+  <si>
+    <t>Brondby,1 1 2 2 0 2 2 1 0 2 1 3 2 1 2 2,(24)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,2 0 2 4 3 2 4 2 0 5 1 1 1 3 0 1,(31)</t>
+  </si>
+  <si>
+    <t>Midtjylland,1 1 2 4 2 3 0 2 1 1 4 2 3 3 0 1,(30)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,1 0 2 3 1 3 1 0 2 1 1 2 0 0 2 1,(20)</t>
+  </si>
+  <si>
+    <t>Odense,2 1 0 1 1 2 2 2 0 1 6 1 1 0 1 2,(23)</t>
+  </si>
+  <si>
+    <t>Randers FC,2 1 2 1 2 1 1 0 3 0 1 2 1 1 1 4,(23)</t>
+  </si>
+  <si>
+    <t>Silkeborg,0 0 0 4 1 0 2 1 0 4 4 1 1 6 0 1,(25)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,0 1 0 0 0 0 2 1 1 0 0 1 2 0 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Vejle,0 0 2 1 0 1 0 0 1 2 0 2 2 0 3 1,(15)</t>
+  </si>
+  <si>
+    <t>Viborg,2 1 0 1 1 2 2 2 1 1 1 1 5 0 2 3,(25)</t>
+  </si>
+  <si>
+    <t>Aalborg,2 1 0 0 0 1 1 2 0 2 0 1 5 0 1 1,(17)</t>
+  </si>
+  <si>
+    <t>Aarhus,1 0 2 2 3 2 2 0 0 0 4 0 1 0 0 1,(18)</t>
+  </si>
+  <si>
+    <t>Brondby,1 1 2 4 1 2 0 1 1 1 1 2 1 0 1 1,(20)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,2 0 0 2 1 0 0 0 1 1 1 1 2 0 0 1,(12)</t>
+  </si>
+  <si>
+    <t>Midtjylland,2 0 0 1 0 0 2 0 0 0 0 2 2 1 3 2,(15)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,2 0 0 1 0 1 2 2 3 5 4 2 2 2 2 1,(29)</t>
+  </si>
+  <si>
+    <t>Odense,1 1 2 3 1 2 2 1 2 1 0 2 1 0 2 3,(24)</t>
+  </si>
+  <si>
+    <t>Randers FC,0 1 1 0 1 1 2 2 2 1 1 1 0 3 1 1,(18)</t>
+  </si>
+  <si>
+    <t>Silkeborg,0 0 0 1 1 3 1 1 2 2 1 1 1 0 0 1,(15)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,0 0 2 1 2 2 2 2 0 1 4 1 3 6 3 3,(32)</t>
+  </si>
+  <si>
+    <t>Vejle,2 1 2 4 1 3 4 1 1 4 6 3 0 3 1 4,(40)</t>
+  </si>
+  <si>
+    <t>Viborg,1 1 2 4 2 0 2 3 1 1 1 1 2 1 2 2,(26)</t>
+  </si>
+  <si>
+    <t>Aalborg,4 1 0 2 1 2 3 5 2 3 4 1 7 2 2 4,(43)</t>
+  </si>
+  <si>
+    <t>Aarhus,2 0 3 2 4 2 4 1 2 1 4 1 1 0 3 2,(32)</t>
+  </si>
+  <si>
+    <t>Brondby,2 2 4 6 1 4 2 2 1 3 2 5 3 1 3 3,(44)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,4 0 2 6 4 2 4 2 1 6 2 2 3 3 0 2,(43)</t>
+  </si>
+  <si>
+    <t>Midtjylland,3 1 2 5 2 3 2 2 1 1 4 4 5 4 3 3,(45)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,3 0 2 4 1 4 3 2 5 6 5 4 2 2 4 2,(49)</t>
+  </si>
+  <si>
+    <t>Odense,3 2 2 4 2 4 4 3 2 2 6 3 2 0 3 5,(47)</t>
+  </si>
+  <si>
+    <t>Randers FC,2 2 3 1 3 2 3 2 5 1 2 3 1 4 2 5,(41)</t>
+  </si>
+  <si>
+    <t>Silkeborg,0 0 0 5 2 3 3 2 2 6 5 2 2 6 0 2,(40)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,0 1 2 1 2 2 4 3 1 1 4 2 5 6 4 4,(42)</t>
+  </si>
+  <si>
+    <t>Vejle,2 1 4 5 1 4 4 1 2 6 6 5 2 3 4 5,(55)</t>
+  </si>
+  <si>
+    <t>Viborg,3 2 2 5 3 2 4 5 2 2 2 2 7 1 4 5,(51)</t>
+  </si>
+  <si>
+    <t>Aalborg,2-2 0-1 0-0 2-0 0-1 1-1 2-1 2-3 2-0 2-1 4-0 1-0 2-5 0-2 1-1 1-3</t>
+  </si>
+  <si>
+    <t>Aarhus,1-1 0-0 1-2 2-0 1-3 2-0 2-2 1-0 0-2 1-0 4-0 1-0 1-0 0-0 3-0 1-1</t>
+  </si>
+  <si>
+    <t>Brondby,1-1 1-1 2-2 4-2 0-1 2-2 2-0 1-1 1-0 2-1 1-1 3-2 2-1 0-1 2-1 1-2</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,2-2 0-0 0-2 4-2 1-3 2-0 0-4 0-2 0-1 1-5 1-1 1-1 2-1 3-0 0-0 1-1</t>
+  </si>
+  <si>
+    <t>Midtjylland,1-2 0-1 0-2 4-1 0-2 3-0 2-0 2-0 0-1 1-0 4-0 2-2 3-2 1-3 3-0 1-2</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,1-2 0-0 0-2 3-1 0-1 3-1 2-1 2-0 3-2 1-5 4-1 2-2 2-0 0-2 2-2 1-1</t>
+  </si>
+  <si>
+    <t>Odense,1-2 1-1 0-2 3-1 1-1 2-2 2-2 2-1 2-0 1-1 6-0 1-2 1-1 0-0 2-1 2-3</t>
+  </si>
+  <si>
+    <t>Randers FC,0-2 1-1 1-2 1-0 1-2 1-1 2-1 0-2 3-2 1-0 1-1 1-2 1-0 1-3 1-1 4-1</t>
+  </si>
+  <si>
+    <t>Silkeborg,0-0 0-0 0-0 4-1 1-1 3-0 2-1 1-1 0-2 2-4 4-1 1-1 1-1 0-6 0-0 1-1</t>
+  </si>
+  <si>
+    <t>Sonderjyske,0-0 1-0 0-2 1-0 0-2 2-0 2-2 2-1 1-0 1-0 4-0 1-1 3-2 0-6 3-1 1-3</t>
+  </si>
+  <si>
+    <t>Vejle,0-2 1-0 2-2 4-1 0-1 3-1 0-4 1-0 1-1 2-4 6-0 3-2 2-0 3-0 3-1 4-1</t>
+  </si>
+  <si>
+    <t>Viborg,1-2 1-1 0-2 4-1 1-2 2-0 2-2 2-3 1-1 1-1 1-1 1-1 2-5 0-1 2-2 2-3</t>
+  </si>
+  <si>
+    <t>Aalborg,0 -1 0 2 1 0 1 1 2 -1 4 -1 -3 2 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Aarhus,0 0 -1 -2 -2 -2 0 1 2 1 -4 1 -1 0 3 0,(-4)</t>
+  </si>
+  <si>
+    <t>Brondby,0 0 0 -2 -1 0 2 0 -1 1 0 1 1 1 1 1,(4)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,0 0 2 2 2 2 4 2 -1 4 0 0 -1 3 0 0,(19)</t>
+  </si>
+  <si>
+    <t>Midtjylland,-1 1 2 3 2 3 -2 2 1 1 4 0 1 2 -3 -1,(15)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,-1 0 2 2 1 2 -1 -2 -1 -4 -3 0 -2 -2 0 0,(-9)</t>
+  </si>
+  <si>
+    <t>Odense,1 0 -2 -2 0 0 0 1 -2 0 6 -1 0 0 -1 -1,(-1)</t>
+  </si>
+  <si>
+    <t>Randers FC,2 0 1 1 1 0 -1 -2 1 -1 0 1 1 -2 0 3,(5)</t>
+  </si>
+  <si>
+    <t>Silkeborg,0 0 0 3 0 -3 1 0 -2 2 3 0 0 6 0 0,(10)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,0 1 -2 -1 -2 -2 0 -1 1 -1 -4 0 -1 -6 -2 -2,(-22)</t>
+  </si>
+  <si>
+    <t>Vejle,-2 -1 0 -3 -1 -2 -4 -1 0 -2 -6 -1 2 -3 2 -3,(-25)</t>
+  </si>
+  <si>
+    <t>Viborg,1 0 -2 -3 -1 2 0 -1 0 0 0 0 3 -1 0 1,(-1)</t>
+  </si>
+  <si>
+    <t>Aalborg,FC Copenhagen(2) Midtjylland(1) Silkeborg(6) Aarhus(7) Vejle(12) Randers FC(4) Nordsjaelland(9) Viborg(8) Odense(10) Brondby(5) Sonderjyske(11) Aarhus(7) Viborg(8) Nordsjaelland(9) Randers FC(4) Sonderjyske(11)</t>
+  </si>
+  <si>
+    <t>Aarhus,Brondby(5) Nordsjaelland(9) Randers FC(4) Aalborg(3) FC Copenhagen(2) Viborg(8) Odense(10) Vejle(12) Silkeborg(6) Sonderjyske(11) Midtjylland(1) Aalborg(3) Randers FC(4) Odense(10) Midtjylland(1) FC Copenhagen(2)</t>
+  </si>
+  <si>
+    <t>Brondby,Aarhus(7) Viborg(8) Vejle(12) FC Copenhagen(2) Nordsjaelland(9) Odense(10) Midtjylland(1) Silkeborg(6) Sonderjyske(11) Aalborg(3) Randers FC(4) Vejle(12) FC Copenhagen(2) Viborg(8) Odense(10) Midtjylland(1)</t>
+  </si>
+  <si>
+    <t>FC Copenhagen,Aalborg(3) Silkeborg(6) Odense(10) Brondby(5) Aarhus(7) Sonderjyske(11) Vejle(12) Randers FC(4) Midtjylland(1) Nordsjaelland(9) Viborg(8) Sonderjyske(11) Brondby(5) Vejle(12) Silkeborg(6) Aarhus(7)</t>
+  </si>
+  <si>
+    <t>Midtjylland,Odense(10) Aalborg(3) Viborg(8) Vejle(12) Sonderjyske(11) Silkeborg(6) Brondby(5) Nordsjaelland(9) FC Copenhagen(2) Randers FC(4) Aarhus(7) Nordsjaelland(9) Sonderjyske(11) Randers FC(4) Aarhus(7) Brondby(5)</t>
+  </si>
+  <si>
+    <t>Nordsjaelland,Viborg(8) Aarhus(7) Sonderjyske(11) Odense(10) Brondby(5) Vejle(12) Aalborg(3) Midtjylland(1) Randers FC(4) FC Copenhagen(2) Silkeborg(6) Midtjylland(1) Vejle(12) Aalborg(3) Viborg(8) Silkeborg(6)</t>
+  </si>
+  <si>
+    <t>Odense,Midtjylland(1) Randers FC(4) FC Copenhagen(2) Nordsjaelland(9) Silkeborg(6) Brondby(5) Aarhus(7) Sonderjyske(11) Aalborg(3) Viborg(8) Vejle(12) Randers FC(4) Silkeborg(6) Aarhus(7) Brondby(5) Viborg(8)</t>
+  </si>
+  <si>
+    <t>Randers FC,Vejle(12) Odense(10) Aarhus(7) Sonderjyske(11) Viborg(8) Aalborg(3) Silkeborg(6) FC Copenhagen(2) Nordsjaelland(9) Midtjylland(1) Brondby(5) Odense(10) Aarhus(7) Midtjylland(1) Aalborg(3) Vejle(12)</t>
+  </si>
+  <si>
+    <t>Silkeborg,Sonderjyske(11) FC Copenhagen(2) Aalborg(3) Viborg(8) Odense(10) Midtjylland(1) Randers FC(4) Brondby(5) Aarhus(7) Vejle(12) Nordsjaelland(9) Viborg(8) Odense(10) Sonderjyske(11) FC Copenhagen(2) Nordsjaelland(9)</t>
+  </si>
+  <si>
+    <t>Sonderjyske,Silkeborg(6) Vejle(12) Nordsjaelland(9) Randers FC(4) Midtjylland(1) FC Copenhagen(2) Viborg(8) Odense(10) Brondby(5) Aarhus(7) Aalborg(3) FC Copenhagen(2) Midtjylland(1) Silkeborg(6) Vejle(12) Aalborg(3)</t>
+  </si>
+  <si>
+    <t>Vejle,Randers FC(4) Sonderjyske(11) Brondby(5) Midtjylland(1) Aalborg(3) Nordsjaelland(9) FC Copenhagen(2) Aarhus(7) Viborg(8) Silkeborg(6) Odense(10) Brondby(5) Nordsjaelland(9) FC Copenhagen(2) Sonderjyske(11) Randers FC(4)</t>
+  </si>
+  <si>
+    <t>Viborg,Nordsjaelland(9) Brondby(5) Midtjylland(1) Silkeborg(6) Randers FC(4) Aarhus(7) Sonderjyske(11) Aalborg(3) Vejle(12) Odense(10) FC Copenhagen(2) Silkeborg(6) Aalborg(3) Brondby(5) Nordsjaelland(9) Odense(10)</t>
   </si>
   <si>
     <t>dnk_division</t>
